--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H2">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I2">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J2">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N2">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O2">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P2">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q2">
-        <v>539.3869143410668</v>
+        <v>1464.865181335254</v>
       </c>
       <c r="R2">
-        <v>4854.482229069602</v>
+        <v>13183.78663201728</v>
       </c>
       <c r="S2">
-        <v>0.001683878546326707</v>
+        <v>0.004092608044793397</v>
       </c>
       <c r="T2">
-        <v>0.001683878546326707</v>
+        <v>0.004092608044793396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H3">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I3">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J3">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q3">
-        <v>1100.519488389661</v>
+        <v>1840.030407809885</v>
       </c>
       <c r="R3">
-        <v>9904.675395506953</v>
+        <v>16560.27367028897</v>
       </c>
       <c r="S3">
-        <v>0.00343564351867463</v>
+        <v>0.005140761993402689</v>
       </c>
       <c r="T3">
-        <v>0.003435643518674631</v>
+        <v>0.005140761993402688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H4">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I4">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J4">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N4">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q4">
-        <v>1012.549569172797</v>
+        <v>2397.591693192718</v>
       </c>
       <c r="R4">
-        <v>9112.946122555173</v>
+        <v>21578.32523873447</v>
       </c>
       <c r="S4">
-        <v>0.003161015685197555</v>
+        <v>0.00669850248112672</v>
       </c>
       <c r="T4">
-        <v>0.003161015685197556</v>
+        <v>0.006698502481126718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H5">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I5">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J5">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N5">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q5">
-        <v>344.2625037616847</v>
+        <v>410.4475668310774</v>
       </c>
       <c r="R5">
-        <v>3098.362533855162</v>
+        <v>3694.028101479697</v>
       </c>
       <c r="S5">
-        <v>0.001074731753730427</v>
+        <v>0.00114672738172913</v>
       </c>
       <c r="T5">
-        <v>0.001074731753730427</v>
+        <v>0.00114672738172913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H6">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I6">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J6">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N6">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q6">
-        <v>2492.107085579305</v>
+        <v>4871.293561845581</v>
       </c>
       <c r="R6">
-        <v>22428.96377021374</v>
+        <v>43841.64205661023</v>
       </c>
       <c r="S6">
-        <v>0.007779954509430832</v>
+        <v>0.01360964508801225</v>
       </c>
       <c r="T6">
-        <v>0.007779954509430833</v>
+        <v>0.01360964508801224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H7">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I7">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J7">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N7">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q7">
-        <v>1107.485837151557</v>
+        <v>1425.260702693555</v>
       </c>
       <c r="R7">
-        <v>9967.372534364011</v>
+        <v>12827.346324242</v>
       </c>
       <c r="S7">
-        <v>0.003457391330708067</v>
+        <v>0.003981959221977416</v>
       </c>
       <c r="T7">
-        <v>0.003457391330708067</v>
+        <v>0.003981959221977415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>92.578022</v>
       </c>
       <c r="I8">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J8">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N8">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O8">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P8">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q8">
-        <v>798.806510616743</v>
+        <v>1297.512598867737</v>
       </c>
       <c r="R8">
-        <v>7189.258595550687</v>
+        <v>11677.61338980963</v>
       </c>
       <c r="S8">
-        <v>0.00249374449051446</v>
+        <v>0.003625050665417908</v>
       </c>
       <c r="T8">
-        <v>0.00249374449051446</v>
+        <v>0.003625050665417907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>92.578022</v>
       </c>
       <c r="I9">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J9">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>158.443176</v>
       </c>
       <c r="O9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q9">
         <v>1629.817314830875</v>
@@ -1013,10 +1013,10 @@
         <v>14668.35583347787</v>
       </c>
       <c r="S9">
-        <v>0.00508802556737621</v>
+        <v>0.004553458938890462</v>
       </c>
       <c r="T9">
-        <v>0.005088025567376211</v>
+        <v>0.004553458938890462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>92.578022</v>
       </c>
       <c r="I10">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J10">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N10">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q10">
-        <v>1499.538024880533</v>
+        <v>2123.680369016983</v>
       </c>
       <c r="R10">
-        <v>13495.84222392479</v>
+        <v>19113.12332115284</v>
       </c>
       <c r="S10">
-        <v>0.004681314734122028</v>
+        <v>0.005933236364377461</v>
       </c>
       <c r="T10">
-        <v>0.004681314734122028</v>
+        <v>0.00593323636437746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>92.578022</v>
       </c>
       <c r="I11">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J11">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N11">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q11">
-        <v>509.8364866748814</v>
+        <v>363.5562479903376</v>
       </c>
       <c r="R11">
-        <v>4588.528380073933</v>
+        <v>3272.006231913038</v>
       </c>
       <c r="S11">
-        <v>0.001591626899394084</v>
+        <v>0.001015720247991637</v>
       </c>
       <c r="T11">
-        <v>0.001591626899394084</v>
+        <v>0.001015720247991637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>92.578022</v>
       </c>
       <c r="I12">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J12">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N12">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q12">
-        <v>3690.692733150163</v>
+        <v>4314.775755347405</v>
       </c>
       <c r="R12">
-        <v>33216.23459835148</v>
+        <v>38832.98179812665</v>
       </c>
       <c r="S12">
-        <v>0.01152174468679407</v>
+        <v>0.01205481991982228</v>
       </c>
       <c r="T12">
-        <v>0.01152174468679408</v>
+        <v>0.01205481991982228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>92.578022</v>
       </c>
       <c r="I13">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J13">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N13">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q13">
-        <v>1640.134147883874</v>
+        <v>1262.432708469665</v>
       </c>
       <c r="R13">
-        <v>14761.20733095486</v>
+        <v>11361.89437622698</v>
       </c>
       <c r="S13">
-        <v>0.00512023304846648</v>
+        <v>0.003527042846348338</v>
       </c>
       <c r="T13">
-        <v>0.00512023304846648</v>
+        <v>0.003527042846348337</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H14">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I14">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J14">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N14">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O14">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P14">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q14">
-        <v>11145.14853941196</v>
+        <v>12004.4897110898</v>
       </c>
       <c r="R14">
-        <v>100306.3368547076</v>
+        <v>108040.4073998082</v>
       </c>
       <c r="S14">
-        <v>0.03479334782169626</v>
+        <v>0.03353869816228617</v>
       </c>
       <c r="T14">
-        <v>0.03479334782169626</v>
+        <v>0.03353869816228617</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H15">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I15">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J15">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>158.443176</v>
       </c>
       <c r="O15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q15">
-        <v>22739.61945036119</v>
+        <v>15078.94813808867</v>
       </c>
       <c r="R15">
-        <v>204656.5750532507</v>
+        <v>135710.533242798</v>
       </c>
       <c r="S15">
-        <v>0.07098940728080877</v>
+        <v>0.04212826220684156</v>
       </c>
       <c r="T15">
-        <v>0.07098940728080878</v>
+        <v>0.04212826220684156</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H16">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I16">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J16">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N16">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q16">
-        <v>20921.93016164391</v>
+        <v>19648.13225070387</v>
       </c>
       <c r="R16">
-        <v>188297.3714547952</v>
+        <v>176833.1902563348</v>
       </c>
       <c r="S16">
-        <v>0.06531487585303392</v>
+        <v>0.05489385995310366</v>
       </c>
       <c r="T16">
-        <v>0.06531487585303393</v>
+        <v>0.05489385995310365</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H17">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I17">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J17">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N17">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q17">
-        <v>7113.366377567903</v>
+        <v>3363.59526852448</v>
       </c>
       <c r="R17">
-        <v>64020.29739811113</v>
+        <v>30272.35741672032</v>
       </c>
       <c r="S17">
-        <v>0.02220677720738015</v>
+        <v>0.009397367915349328</v>
       </c>
       <c r="T17">
-        <v>0.02220677720738015</v>
+        <v>0.009397367915349328</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H18">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I18">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J18">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N18">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q18">
-        <v>51493.46954186519</v>
+        <v>39919.98320935581</v>
       </c>
       <c r="R18">
-        <v>463441.2258767867</v>
+        <v>359279.8488842022</v>
       </c>
       <c r="S18">
-        <v>0.1607542680997384</v>
+        <v>0.1115302940586693</v>
       </c>
       <c r="T18">
-        <v>0.1607542680997384</v>
+        <v>0.1115302940586693</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H19">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I19">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J19">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N19">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q19">
-        <v>22883.56248951245</v>
+        <v>11679.93318368707</v>
       </c>
       <c r="R19">
-        <v>205952.062405612</v>
+        <v>105119.3986531836</v>
       </c>
       <c r="S19">
-        <v>0.07143877412504519</v>
+        <v>0.03263193713610909</v>
       </c>
       <c r="T19">
-        <v>0.07143877412504521</v>
+        <v>0.03263193713610909</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H20">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I20">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J20">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N20">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O20">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P20">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q20">
-        <v>325.3758481141166</v>
+        <v>257.106857819978</v>
       </c>
       <c r="R20">
-        <v>2928.382633027049</v>
+        <v>2313.961720379802</v>
       </c>
       <c r="S20">
-        <v>0.001015770675122037</v>
+        <v>0.0007183170219982008</v>
       </c>
       <c r="T20">
-        <v>0.001015770675122037</v>
+        <v>0.0007183170219982007</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H21">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I21">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J21">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>158.443176</v>
       </c>
       <c r="O21">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P21">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q21">
-        <v>663.8693901915386</v>
+        <v>322.954250311272</v>
       </c>
       <c r="R21">
-        <v>5974.824511723848</v>
+        <v>2906.588252801448</v>
       </c>
       <c r="S21">
-        <v>0.002072492665255255</v>
+        <v>0.0009022845103870604</v>
       </c>
       <c r="T21">
-        <v>0.002072492665255255</v>
+        <v>0.0009022845103870602</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H22">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I22">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J22">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N22">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O22">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P22">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q22">
-        <v>610.8030544820698</v>
+        <v>420.8150172633401</v>
       </c>
       <c r="R22">
-        <v>5497.227490338629</v>
+        <v>3787.33515537006</v>
       </c>
       <c r="S22">
-        <v>0.001906828163841631</v>
+        <v>0.001175692443895738</v>
       </c>
       <c r="T22">
-        <v>0.001906828163841632</v>
+        <v>0.001175692443895737</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H23">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I23">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J23">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N23">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O23">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P23">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q23">
-        <v>207.6704146080153</v>
+        <v>72.039997641013</v>
       </c>
       <c r="R23">
-        <v>1869.033731472138</v>
+        <v>648.359978769117</v>
       </c>
       <c r="S23">
-        <v>0.0006483133842659208</v>
+        <v>0.0002012686748576837</v>
       </c>
       <c r="T23">
-        <v>0.0006483133842659208</v>
+        <v>0.0002012686748576837</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H24">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I24">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J24">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N24">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O24">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P24">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q24">
-        <v>1503.320594182662</v>
+        <v>854.9885662946671</v>
       </c>
       <c r="R24">
-        <v>13529.88534764396</v>
+        <v>7694.897096652004</v>
       </c>
       <c r="S24">
-        <v>0.004693123302569839</v>
+        <v>0.002388706571231624</v>
       </c>
       <c r="T24">
-        <v>0.004693123302569839</v>
+        <v>0.002388706571231624</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H25">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I25">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J25">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N25">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O25">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P25">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q25">
-        <v>668.0717198669433</v>
+        <v>250.155649484284</v>
       </c>
       <c r="R25">
-        <v>6012.64547880249</v>
+        <v>2251.400845358556</v>
       </c>
       <c r="S25">
-        <v>0.002085611657572023</v>
+        <v>0.0006988964148882927</v>
       </c>
       <c r="T25">
-        <v>0.002085611657572024</v>
+        <v>0.0006988964148882926</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H26">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I26">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J26">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N26">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O26">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P26">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q26">
-        <v>3764.965690106624</v>
+        <v>5104.615213910319</v>
       </c>
       <c r="R26">
-        <v>33884.69121095961</v>
+        <v>45941.53692519287</v>
       </c>
       <c r="S26">
-        <v>0.0117536128234989</v>
+        <v>0.01426150990289864</v>
       </c>
       <c r="T26">
-        <v>0.0117536128234989</v>
+        <v>0.01426150990289864</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H27">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I27">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J27">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>158.443176</v>
       </c>
       <c r="O27">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P27">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q27">
-        <v>7681.717900298912</v>
+        <v>6411.953354780653</v>
       </c>
       <c r="R27">
-        <v>69135.46110269021</v>
+        <v>57707.58019302587</v>
       </c>
       <c r="S27">
-        <v>0.02398107856778302</v>
+        <v>0.01791401162166716</v>
       </c>
       <c r="T27">
-        <v>0.02398107856778302</v>
+        <v>0.01791401162166716</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H28">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I28">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J28">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N28">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O28">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P28">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q28">
-        <v>7067.680520438566</v>
+        <v>8354.886981927346</v>
       </c>
       <c r="R28">
-        <v>63609.12468394709</v>
+        <v>75193.98283734611</v>
       </c>
       <c r="S28">
-        <v>0.02206415336418845</v>
+        <v>0.02334226938509633</v>
       </c>
       <c r="T28">
-        <v>0.02206415336418845</v>
+        <v>0.02334226938509632</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H29">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I29">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J29">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N29">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O29">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P29">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q29">
-        <v>2402.981015281673</v>
+        <v>1430.286500665266</v>
       </c>
       <c r="R29">
-        <v>21626.82913753505</v>
+        <v>12872.57850598739</v>
       </c>
       <c r="S29">
-        <v>0.007501717359618016</v>
+        <v>0.003996000528626387</v>
       </c>
       <c r="T29">
-        <v>0.007501717359618015</v>
+        <v>0.003996000528626387</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H30">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I30">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J30">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N30">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O30">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P30">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q30">
-        <v>17395.11549838006</v>
+        <v>16974.99506715998</v>
       </c>
       <c r="R30">
-        <v>156556.0394854206</v>
+        <v>152774.9556044398</v>
       </c>
       <c r="S30">
-        <v>0.05430473194623302</v>
+        <v>0.04742552574624105</v>
       </c>
       <c r="T30">
-        <v>0.05430473194623302</v>
+        <v>0.04742552574624104</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H31">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I31">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J31">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N31">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O31">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P31">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q31">
-        <v>7730.343596207561</v>
+        <v>4966.605500259318</v>
       </c>
       <c r="R31">
-        <v>69573.09236586804</v>
+        <v>44699.44950233386</v>
       </c>
       <c r="S31">
-        <v>0.02413288011128321</v>
+        <v>0.01387593198655218</v>
       </c>
       <c r="T31">
-        <v>0.02413288011128321</v>
+        <v>0.01387593198655218</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H32">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I32">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J32">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N32">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O32">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P32">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q32">
-        <v>9619.536995574112</v>
+        <v>22122.82529506219</v>
       </c>
       <c r="R32">
-        <v>86575.832960167</v>
+        <v>199105.4276555597</v>
       </c>
       <c r="S32">
-        <v>0.03003063578624537</v>
+        <v>0.06180777175248393</v>
       </c>
       <c r="T32">
-        <v>0.03003063578624537</v>
+        <v>0.06180777175248393</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H33">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I33">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J33">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>158.443176</v>
       </c>
       <c r="O33">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P33">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q33">
-        <v>19626.89055192866</v>
+        <v>27788.68101191073</v>
       </c>
       <c r="R33">
-        <v>176642.014967358</v>
+        <v>250098.1291071966</v>
       </c>
       <c r="S33">
-        <v>0.06127197203489659</v>
+        <v>0.077637301311154</v>
       </c>
       <c r="T33">
-        <v>0.06127197203489661</v>
+        <v>0.077637301311154</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H34">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I34">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J34">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N34">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O34">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P34">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q34">
-        <v>18058.01694764763</v>
+        <v>36209.13571653501</v>
       </c>
       <c r="R34">
-        <v>162522.1525288287</v>
+        <v>325882.221448815</v>
       </c>
       <c r="S34">
-        <v>0.05637420285676518</v>
+        <v>0.1011627568302423</v>
       </c>
       <c r="T34">
-        <v>0.0563742028567652</v>
+        <v>0.1011627568302423</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H35">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I35">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J35">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N35">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O35">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P35">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q35">
-        <v>6139.648187739436</v>
+        <v>6198.700009724071</v>
       </c>
       <c r="R35">
-        <v>55256.83368965492</v>
+        <v>55788.30008751664</v>
       </c>
       <c r="S35">
-        <v>0.01916698679640355</v>
+        <v>0.01731821457039031</v>
       </c>
       <c r="T35">
-        <v>0.01916698679640355</v>
+        <v>0.01731821457039031</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H36">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I36">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J36">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N36">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O36">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P36">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q36">
-        <v>44444.7495281724</v>
+        <v>73567.70971335359</v>
       </c>
       <c r="R36">
-        <v>400002.7457535516</v>
+        <v>662109.3874201823</v>
       </c>
       <c r="S36">
-        <v>0.1387493063653204</v>
+        <v>0.2055368674511413</v>
       </c>
       <c r="T36">
-        <v>0.1387493063653204</v>
+        <v>0.2055368674511413</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H37">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I37">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J37">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N37">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O37">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P37">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q37">
-        <v>19751.12984631531</v>
+        <v>21524.70679715805</v>
       </c>
       <c r="R37">
-        <v>177760.1686168378</v>
+        <v>193722.3611744225</v>
       </c>
       <c r="S37">
-        <v>0.06165982698069929</v>
+        <v>0.0601367206499989</v>
       </c>
       <c r="T37">
-        <v>0.06165982698069931</v>
+        <v>0.06013672064999889</v>
       </c>
     </row>
   </sheetData>
